--- a/MISC/word pool.xlsx
+++ b/MISC/word pool.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crowncao/Documents/English-routinely-wordcards/MISC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24825" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Word Pool" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Extended Words" sheetId="3" r:id="rId3"/>
     <sheet name="Touge" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
   <si>
     <t>WORD</t>
   </si>
@@ -107,9 +102,6 @@
     <t>met</t>
   </si>
   <si>
-    <t>TsingDao</t>
-  </si>
-  <si>
     <t>Tsinghub</t>
   </si>
   <si>
@@ -228,6 +220,330 @@
   </si>
   <si>
     <t>anthem</t>
+  </si>
+  <si>
+    <t>TsingTao</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>suffice</t>
+  </si>
+  <si>
+    <t>credible</t>
+  </si>
+  <si>
+    <t>credibility</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>rabies</t>
+  </si>
+  <si>
+    <t>Varicella</t>
+  </si>
+  <si>
+    <t>Polio</t>
+  </si>
+  <si>
+    <t>肝炎</t>
+  </si>
+  <si>
+    <t>狂犬病</t>
+  </si>
+  <si>
+    <t>水痘</t>
+  </si>
+  <si>
+    <t>Diphtheria</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>破伤风</t>
+  </si>
+  <si>
+    <t>白喉</t>
+  </si>
+  <si>
+    <t>百日咳</t>
+  </si>
+  <si>
+    <t>脊髓灰质炎</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Rubella</t>
+  </si>
+  <si>
+    <t>麻疹</t>
+  </si>
+  <si>
+    <t>腮腺炎</t>
+  </si>
+  <si>
+    <t>风疹</t>
+  </si>
+  <si>
+    <t>by any chance</t>
+  </si>
+  <si>
+    <t>long-tenured</t>
+  </si>
+  <si>
+    <t>entrant</t>
+  </si>
+  <si>
+    <t>unleash</t>
+  </si>
+  <si>
+    <t>with flying colors</t>
+  </si>
+  <si>
+    <t>长期终身</t>
+  </si>
+  <si>
+    <t>参赛者</t>
+  </si>
+  <si>
+    <t>发挥</t>
+  </si>
+  <si>
+    <t>sleeker</t>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>proposition</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>line-up</t>
+  </si>
+  <si>
+    <t>更时尚</t>
+  </si>
+  <si>
+    <t>钳</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
+    <t>迈</t>
+  </si>
+  <si>
+    <t>排队</t>
+  </si>
+  <si>
+    <t>symbolic</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>cap off</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>meticulous</t>
+  </si>
+  <si>
+    <t>Career Lattice</t>
+  </si>
+  <si>
+    <t>hindsight</t>
+  </si>
+  <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>demotion</t>
+  </si>
+  <si>
+    <t>muzzle</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>testament</t>
+  </si>
+  <si>
+    <t>acclimate</t>
+  </si>
+  <si>
+    <t>盖帽</t>
+  </si>
+  <si>
+    <t>击晕</t>
+  </si>
+  <si>
+    <t>细致</t>
+  </si>
+  <si>
+    <t>职业格子</t>
+  </si>
+  <si>
+    <t>事后</t>
+  </si>
+  <si>
+    <t>保有</t>
+  </si>
+  <si>
+    <t>降级</t>
+  </si>
+  <si>
+    <t>枪口</t>
+  </si>
+  <si>
+    <t>梯度</t>
+  </si>
+  <si>
+    <t>编队</t>
+  </si>
+  <si>
+    <t>遗嘱</t>
+  </si>
+  <si>
+    <t>适应</t>
+  </si>
+  <si>
+    <t>Prophylaxis</t>
+  </si>
+  <si>
+    <t>customary</t>
+  </si>
+  <si>
+    <t>expatriates</t>
+  </si>
+  <si>
+    <t>Petty</t>
+  </si>
+  <si>
+    <t>alcohol-fuelled</t>
+  </si>
+  <si>
+    <t>酒精燃料</t>
+  </si>
+  <si>
+    <t>小气</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>习惯性</t>
+  </si>
+  <si>
+    <t>预防</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>groan</t>
+  </si>
+  <si>
+    <t>exhale</t>
+  </si>
+  <si>
+    <t>grunting</t>
+  </si>
+  <si>
+    <t>scoot on back out</t>
+  </si>
+  <si>
+    <t>creepy statues</t>
+  </si>
+  <si>
+    <t>low growling</t>
+  </si>
+  <si>
+    <t>amplify</t>
+  </si>
+  <si>
+    <t>squeak</t>
+  </si>
+  <si>
+    <t>lit up</t>
+  </si>
+  <si>
+    <t>snuck</t>
+  </si>
+  <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>omelet</t>
+  </si>
+  <si>
+    <t>aerodynamic</t>
+  </si>
+  <si>
+    <t>空气动力学的</t>
+  </si>
+  <si>
+    <t>煎蛋卷</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>偷传</t>
+  </si>
+  <si>
+    <t>点亮</t>
+  </si>
+  <si>
+    <t>吱</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>毛骨悚然的雕像</t>
+  </si>
+  <si>
+    <t>低咆哮</t>
+  </si>
+  <si>
+    <t>回头踢了一下</t>
+  </si>
+  <si>
+    <t>呼噜</t>
+  </si>
+  <si>
+    <t>呼</t>
+  </si>
+  <si>
+    <t>呻吟</t>
+  </si>
+  <si>
+    <t>翱翔</t>
   </si>
 </sst>
 </file>
@@ -273,7 +589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -382,11 +698,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +740,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,362 +1029,570 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
@@ -1062,17 +1615,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,47 +1636,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1135,15 +1688,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1193,13 +1746,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1215,13 +1768,13 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1237,13 +1790,13 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1259,13 +1812,13 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1281,13 +1834,13 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1303,13 +1856,13 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1325,13 +1878,13 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1347,16 +1900,16 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1371,13 +1924,13 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1393,13 +1946,13 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1415,13 +1968,13 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1437,6 +1990,22 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1444,35 +2013,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +2049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1488,14 +2057,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/MISC/word pool.xlsx
+++ b/MISC/word pool.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="243">
   <si>
     <t>WORD</t>
   </si>
@@ -30,9 +30,6 @@
     <t>MEANING</t>
   </si>
   <si>
-    <t>MARK</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -544,6 +541,216 @@
   </si>
   <si>
     <t>翱翔</t>
+  </si>
+  <si>
+    <t>Kilobyte</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>Megabyte</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Trillionbyte</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Foreign Exchange</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Futures</t>
+  </si>
+  <si>
+    <t>Swaps</t>
+  </si>
+  <si>
+    <t>Hedge Funds</t>
+  </si>
+  <si>
+    <t>Trusts</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Forwards</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Monies</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>养老金</t>
+  </si>
+  <si>
+    <t>期权</t>
+  </si>
+  <si>
+    <t>远期</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>信托</t>
+  </si>
+  <si>
+    <t>对冲基金</t>
+  </si>
+  <si>
+    <t>掉期</t>
+  </si>
+  <si>
+    <t>期货</t>
+  </si>
+  <si>
+    <t>衍生品</t>
+  </si>
+  <si>
+    <t>债券</t>
+  </si>
+  <si>
+    <t>外汇</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t>dampness</t>
+  </si>
+  <si>
+    <t>潮气，湿气</t>
+  </si>
+  <si>
+    <t>暗礁</t>
+  </si>
+  <si>
+    <t>confound</t>
+  </si>
+  <si>
+    <t>shallow resemblance</t>
+  </si>
+  <si>
+    <t>write-up</t>
+  </si>
+  <si>
+    <t>报道</t>
+  </si>
+  <si>
+    <t>hassle</t>
+  </si>
+  <si>
+    <t>nitty-gritty</t>
+  </si>
+  <si>
+    <t>本质（非正式）</t>
+  </si>
+  <si>
+    <t>争论</t>
+  </si>
+  <si>
+    <t>Arrays of characters</t>
+  </si>
+  <si>
+    <t>字符数组</t>
+  </si>
+  <si>
+    <t>profitability</t>
+  </si>
+  <si>
+    <t>defy</t>
+  </si>
+  <si>
+    <t>corp plot</t>
+  </si>
+  <si>
+    <t>fanatics</t>
+  </si>
+  <si>
+    <t>car hailing</t>
+  </si>
+  <si>
+    <t>disclocated teams</t>
+  </si>
+  <si>
+    <t>distributed teams</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>oceania</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antarctic</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>减轻</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>prioritization</t>
+  </si>
+  <si>
+    <t>sneak peak</t>
+  </si>
+  <si>
+    <t>抢先看</t>
+  </si>
+  <si>
+    <t>otolaryngology</t>
   </si>
 </sst>
 </file>
@@ -722,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,6 +950,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,7 +1239,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1039,475 +1248,525 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -1516,10 +1775,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -1528,10 +1787,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -1540,10 +1799,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -1552,10 +1811,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -1564,10 +1823,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -1576,10 +1835,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -1588,10 +1847,10 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
@@ -1612,74 +1871,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,71 +2066,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1771,10 +2149,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1793,10 +2171,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1815,10 +2193,10 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1837,10 +2215,10 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1859,10 +2237,10 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1881,10 +2259,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1903,13 +2281,13 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1927,10 +2305,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1949,10 +2327,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1971,10 +2349,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1991,19 +2369,51 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>110</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2023,53 +2433,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
